--- a/file/temp/统计.xlsx
+++ b/file/temp/统计.xlsx
@@ -1073,8 +1073,9 @@
           <t>业务线对其他业务线的数据项要求，应遵循公司数据标准定义的数据项标准；包括数据项名称，数据定义，数据值域。其中，属于公司数据标准的部分，遵循数据标准的定义，非公司数据标准部分的数据项，需遵循由业务提供方的数据项定义。</t>
         </is>
       </c>
-      <c r="E25" s="24" t="n">
-        <v>0.32</v>
+      <c r="E25" s="24">
+        <f>B19</f>
+        <v/>
       </c>
       <c r="F25" s="21" t="n"/>
     </row>
@@ -1095,8 +1096,10 @@
           <t>业务线提供的重要业务结果的部分的数据值域范围，应兼容公司数据标准中定义的标准代码。包括代码的编码规则不冲突、层级关系不冲突、代码不冲突。</t>
         </is>
       </c>
-      <c r="E26" s="20" t="n">
-        <v>0.95</v>
+      <c r="E26" s="20" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
       </c>
       <c r="F26" s="23" t="inlineStr">
         <is>
@@ -1125,15 +1128,12 @@
           <t>/</t>
         </is>
       </c>
-      <c r="E27" s="15" t="n">
-        <v>0.845945945945946</v>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="E28" t="n">
-        <v>0.947136563876652</v>
-      </c>
     </row>
     <row r="29" ht="16.5" customHeight="1" s="29">
       <c r="A29" s="1" t="inlineStr">

--- a/file/temp/统计.xlsx
+++ b/file/temp/统计.xlsx
@@ -821,7 +821,9 @@
           <t>未入标外部数据要求业务过程数</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="C12" s="9" t="n"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="7" t="n"/>
